--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2311934.678690666</v>
+        <v>2309682.598979458</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.41485187</v>
+        <v>9507242.414851869</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738222</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.8263485681709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.7312913064991</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>50.73003670622337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157667</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>124.2292170629838</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177685</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>177.2979137777583</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.80543121045616</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.03048557918459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503928</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5740289795506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>95.2538199663615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.817050818438</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518789</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6604102493278</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756247</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>91.89996056624848</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>180.9172429496422</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060472</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.68281686619699</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>38.61213096654825</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>194.0641876011614</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1416.425065783662</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386632</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.18168444622</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1801.810490449115</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1801.810490449115</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008255</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972545</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2387.388512467613</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855599</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199797</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162836</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.833967264819</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.041388121288</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400352</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639639</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.77659230462</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406603</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803939</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961528</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961528</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.15426255076</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790047</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.687142285115</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168637</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468473</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438167</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206044</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926976</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803618</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979687</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508442</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098246</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819177</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.302781469582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871889</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892785</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647286</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368217</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244859</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420928</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441825</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>186.6449060441825</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949683</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938885</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239598</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.212916266271</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820878</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2149.810879820878</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122191</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245697</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403286</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.8014946027527</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823507</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.257951202386693</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>191.2691783702295</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>32.89260457059913</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.74504007796051</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059918</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>48.39475227997538</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2672314396019</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516641</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.1491633157403</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0033420516641</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.53502524</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.53502524</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252404</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26317,43 @@
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181799</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181799</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181802</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181804</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181804</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439431</v>
+        <v>-912471.3138439429</v>
       </c>
       <c r="C6" t="n">
         <v>416273.4318836496</v>
       </c>
       <c r="D6" t="n">
-        <v>416273.4318836496</v>
+        <v>416273.4318836497</v>
       </c>
       <c r="E6" t="n">
-        <v>166438.0379544238</v>
+        <v>166403.3000289884</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.4997617794</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.499761779</v>
+        <v>491815.761836343</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617792</v>
+        <v>491815.7618363431</v>
       </c>
       <c r="J6" t="n">
-        <v>274319.2973645019</v>
+        <v>274284.559439066</v>
       </c>
       <c r="K6" t="n">
-        <v>491850.499761779</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="L6" t="n">
-        <v>491850.4997617793</v>
+        <v>491815.7618363435</v>
       </c>
       <c r="M6" t="n">
-        <v>406795.471826267</v>
+        <v>406760.7339008315</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617792</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363432</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363433</v>
       </c>
     </row>
   </sheetData>
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022918</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.41159008788264</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.85336204559565</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>303.9530049144596</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659917</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>65.53980826845806</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029145</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>73.69725818114372</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.0265489714811</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-2.676105889115889e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.115904086757728e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.115904086757728e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-2.363549356232397e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.669826664037388e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>307.3280120589124</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075155</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485695</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817582</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.4610577451593</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256867</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709955</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578887</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>541.2980521010952</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>615.1181176946642</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34469,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.3462379728909</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899014</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899054</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342392</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367777</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.4792836591378</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113564</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876622</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587042</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>407.323644686765</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>483.7764056113309</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
